--- a/DaZhongManagementSystem/ReportTemplate/HomecomingSurveyTemplate.xlsx
+++ b/DaZhongManagementSystem/ReportTemplate/HomecomingSurveyTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA2FDF-A7BE-41E2-B13E-2768034F163E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1AFDE8-5FCF-44BF-B337-8A11C29DBCA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="3630" windowWidth="20910" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="375" windowWidth="20910" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>&amp;=[table].PhoneNumber</t>
-  </si>
-  <si>
     <t>公司/部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +66,10 @@
   </si>
   <si>
     <t>&amp;=[table].EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[table].WhetherReturnHome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +477,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,48 +493,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/DaZhongManagementSystem/ReportTemplate/HomecomingSurveyTemplate.xlsx
+++ b/DaZhongManagementSystem/ReportTemplate/HomecomingSurveyTemplate.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1AFDE8-5FCF-44BF-B337-8A11C29DBCA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="375" windowWidth="20910" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="375" windowWidth="20910" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,40 +14,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>公司/部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否返乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[table].LicensePlate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[table].Fleet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返乡交通工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车号/班次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返乡目的地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回沪交通工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[table].BackCarNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[table].BackAdress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[table].GoCarNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[table].CheckDrivingGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[table].CheckDrivingBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&amp;=[table].OrganizationName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车牌号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否返乡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=[table].UserID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,7 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=[table].LicensePlate</t>
+    <t>&amp;=[table].WhetherReturnHome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,17 +113,13 @@
   </si>
   <si>
     <t>&amp;=[table].EndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[table].WhetherReturnHome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,13 +171,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -154,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,23 +275,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -281,23 +310,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,68 +485,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="26.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.25" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
